--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fall17\INFO_6205_Team10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16215" windowHeight="7950"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="16220" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time table Analysis</t>
   </si>
@@ -43,13 +48,16 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>gshdhs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,26 +103,65 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -151,10 +198,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23D3-46AD-98EE-FFCD5CBEA11F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
         <c:axId val="85893120"/>
         <c:axId val="85897600"/>
@@ -164,14 +222,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85897600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="85897600"/>
@@ -181,6 +243,8 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85893120"/>
         <c:crosses val="autoZero"/>
@@ -189,9 +253,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -218,7 +284,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -279,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +383,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +435,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,27 +628,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,7 +682,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -591,7 +699,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -606,6 +714,11 @@
       </c>
       <c r="E6">
         <v>2.3069999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -616,24 +729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time table Analysis</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>gshdhs</t>
   </si>
 </sst>
 </file>
@@ -629,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -716,11 +713,6 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
